--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tff2</t>
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49896551856872</v>
+        <v>1.5294345</v>
       </c>
       <c r="H2">
-        <v>1.49896551856872</v>
+        <v>3.058869</v>
       </c>
       <c r="I2">
-        <v>0.4662051659358465</v>
+        <v>0.3563161459828846</v>
       </c>
       <c r="J2">
-        <v>0.4662051659358465</v>
+        <v>0.273688146424687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N2">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O2">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P2">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q2">
-        <v>37.78839315039567</v>
+        <v>39.207766123977</v>
       </c>
       <c r="R2">
-        <v>37.78839315039567</v>
+        <v>156.831064495908</v>
       </c>
       <c r="S2">
-        <v>0.02219954531219952</v>
+        <v>0.01677156541864467</v>
       </c>
       <c r="T2">
-        <v>0.02219954531219952</v>
+        <v>0.008932566389899366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49896551856872</v>
+        <v>1.5294345</v>
       </c>
       <c r="H3">
-        <v>1.49896551856872</v>
+        <v>3.058869</v>
       </c>
       <c r="I3">
-        <v>0.4662051659358465</v>
+        <v>0.3563161459828846</v>
       </c>
       <c r="J3">
-        <v>0.4662051659358465</v>
+        <v>0.273688146424687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N3">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O3">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P3">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q3">
-        <v>284.7964122126364</v>
+        <v>298.4787643474395</v>
       </c>
       <c r="R3">
-        <v>284.7964122126364</v>
+        <v>1790.872586084637</v>
       </c>
       <c r="S3">
-        <v>0.1673093331199258</v>
+        <v>0.1276776673912055</v>
       </c>
       <c r="T3">
-        <v>0.1673093331199258</v>
+        <v>0.1020020384511844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.49896551856872</v>
+        <v>1.5294345</v>
       </c>
       <c r="H4">
-        <v>1.49896551856872</v>
+        <v>3.058869</v>
       </c>
       <c r="I4">
-        <v>0.4662051659358465</v>
+        <v>0.3563161459828846</v>
       </c>
       <c r="J4">
-        <v>0.4662051659358465</v>
+        <v>0.273688146424687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N4">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O4">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P4">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q4">
-        <v>392.2273096178298</v>
+        <v>401.8322563218535</v>
       </c>
       <c r="R4">
-        <v>392.2273096178298</v>
+        <v>2410.993537931121</v>
       </c>
       <c r="S4">
-        <v>0.2304217566989072</v>
+        <v>0.1718882925620747</v>
       </c>
       <c r="T4">
-        <v>0.2304217566989072</v>
+        <v>0.1373220280842384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.49896551856872</v>
+        <v>1.5294345</v>
       </c>
       <c r="H5">
-        <v>1.49896551856872</v>
+        <v>3.058869</v>
       </c>
       <c r="I5">
-        <v>0.4662051659358465</v>
+        <v>0.3563161459828846</v>
       </c>
       <c r="J5">
-        <v>0.4662051659358465</v>
+        <v>0.273688146424687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N5">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O5">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P5">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q5">
-        <v>34.58092294079681</v>
+        <v>36.33315625517601</v>
       </c>
       <c r="R5">
-        <v>34.58092294079681</v>
+        <v>217.998937531056</v>
       </c>
       <c r="S5">
-        <v>0.02031525295893298</v>
+        <v>0.01554191853401397</v>
       </c>
       <c r="T5">
-        <v>0.02031525295893298</v>
+        <v>0.01241648131817973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.49896551856872</v>
+        <v>1.5294345</v>
       </c>
       <c r="H6">
-        <v>1.49896551856872</v>
+        <v>3.058869</v>
       </c>
       <c r="I6">
-        <v>0.4662051659358465</v>
+        <v>0.3563161459828846</v>
       </c>
       <c r="J6">
-        <v>0.4662051659358465</v>
+        <v>0.273688146424687</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N6">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O6">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P6">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q6">
-        <v>44.18826527052478</v>
+        <v>57.126957201567</v>
       </c>
       <c r="R6">
-        <v>44.18826527052478</v>
+        <v>228.507828806268</v>
       </c>
       <c r="S6">
-        <v>0.02595927784588099</v>
+        <v>0.02443670207694583</v>
       </c>
       <c r="T6">
-        <v>0.02595927784588099</v>
+        <v>0.01301503218118503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.71628310605718</v>
+        <v>0.6836733333333332</v>
       </c>
       <c r="H7">
-        <v>1.71628310605718</v>
+        <v>2.05102</v>
       </c>
       <c r="I7">
-        <v>0.5337948340641534</v>
+        <v>0.1592770708680923</v>
       </c>
       <c r="J7">
-        <v>0.5337948340641534</v>
+        <v>0.1835122269309217</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N7">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O7">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P7">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q7">
-        <v>43.26689304434299</v>
+        <v>17.52628449177333</v>
       </c>
       <c r="R7">
-        <v>43.26689304434299</v>
+        <v>105.15770695064</v>
       </c>
       <c r="S7">
-        <v>0.02541799935322006</v>
+        <v>0.007497066422251402</v>
       </c>
       <c r="T7">
-        <v>0.02541799935322006</v>
+        <v>0.005989426914657475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.71628310605718</v>
+        <v>0.6836733333333332</v>
       </c>
       <c r="H8">
-        <v>1.71628310605718</v>
+        <v>2.05102</v>
       </c>
       <c r="I8">
-        <v>0.5337948340641534</v>
+        <v>0.1592770708680923</v>
       </c>
       <c r="J8">
-        <v>0.5337948340641534</v>
+        <v>0.1835122269309217</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N8">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O8">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P8">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q8">
-        <v>326.0857337218567</v>
+        <v>133.42315198894</v>
       </c>
       <c r="R8">
-        <v>326.0857337218567</v>
+        <v>1200.80836790046</v>
       </c>
       <c r="S8">
-        <v>0.1915655686286938</v>
+        <v>0.05707326234472287</v>
       </c>
       <c r="T8">
-        <v>0.1915655686286938</v>
+        <v>0.06839397859278974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.71628310605718</v>
+        <v>0.6836733333333332</v>
       </c>
       <c r="H9">
-        <v>1.71628310605718</v>
+        <v>2.05102</v>
       </c>
       <c r="I9">
-        <v>0.5337948340641534</v>
+        <v>0.1592770708680923</v>
       </c>
       <c r="J9">
-        <v>0.5337948340641534</v>
+        <v>0.1835122269309217</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N9">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O9">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P9">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q9">
-        <v>449.0917882314706</v>
+        <v>179.6232516792422</v>
       </c>
       <c r="R9">
-        <v>449.0917882314706</v>
+        <v>1616.60926511318</v>
       </c>
       <c r="S9">
-        <v>0.2638279289225838</v>
+        <v>0.07683587753309395</v>
       </c>
       <c r="T9">
-        <v>0.2638279289225838</v>
+        <v>0.09207658975959243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.71628310605718</v>
+        <v>0.6836733333333332</v>
       </c>
       <c r="H10">
-        <v>1.71628310605718</v>
+        <v>2.05102</v>
       </c>
       <c r="I10">
-        <v>0.5337948340641534</v>
+        <v>0.1592770708680923</v>
       </c>
       <c r="J10">
-        <v>0.5337948340641534</v>
+        <v>0.1835122269309217</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N10">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O10">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P10">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q10">
-        <v>39.59440901070587</v>
+        <v>16.24130359783111</v>
       </c>
       <c r="R10">
-        <v>39.59440901070587</v>
+        <v>146.17173238048</v>
       </c>
       <c r="S10">
-        <v>0.02326052535350322</v>
+        <v>0.006947401311101876</v>
       </c>
       <c r="T10">
-        <v>0.02326052535350322</v>
+        <v>0.008325446926041287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6836733333333332</v>
+      </c>
+      <c r="H11">
+        <v>2.05102</v>
+      </c>
+      <c r="I11">
+        <v>0.1592770708680923</v>
+      </c>
+      <c r="J11">
+        <v>0.1835122269309217</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>37.351686</v>
+      </c>
+      <c r="N11">
+        <v>74.703372</v>
+      </c>
+      <c r="O11">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P11">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q11">
+        <v>25.53635167324</v>
+      </c>
+      <c r="R11">
+        <v>153.21811003944</v>
+      </c>
+      <c r="S11">
+        <v>0.01092346325692218</v>
+      </c>
+      <c r="T11">
+        <v>0.008726784737840724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.756520666666667</v>
+      </c>
+      <c r="H12">
+        <v>5.269562000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.409220973036736</v>
+      </c>
+      <c r="J12">
+        <v>0.4714868980168704</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.635466</v>
+      </c>
+      <c r="N12">
+        <v>51.270932</v>
+      </c>
+      <c r="O12">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P12">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q12">
+        <v>45.02922582863067</v>
+      </c>
+      <c r="R12">
+        <v>270.175354971784</v>
+      </c>
+      <c r="S12">
+        <v>0.01926176065088198</v>
+      </c>
+      <c r="T12">
+        <v>0.01538827338166194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.756520666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.269562000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.409220973036736</v>
+      </c>
+      <c r="J13">
+        <v>0.4714868980168704</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>195.156291</v>
+      </c>
+      <c r="N13">
+        <v>585.468873</v>
+      </c>
+      <c r="O13">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P13">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q13">
+        <v>342.7960583715141</v>
+      </c>
+      <c r="R13">
+        <v>3085.164525343626</v>
+      </c>
+      <c r="S13">
+        <v>0.1466348911603898</v>
+      </c>
+      <c r="T13">
+        <v>0.1757205247249556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.756520666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.269562000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.409220973036736</v>
+      </c>
+      <c r="J14">
+        <v>0.4714868980168704</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N14">
+        <v>788.197709</v>
+      </c>
+      <c r="O14">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P14">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q14">
+        <v>461.4951884259398</v>
+      </c>
+      <c r="R14">
+        <v>4153.456695833459</v>
+      </c>
+      <c r="S14">
+        <v>0.1974097865866963</v>
+      </c>
+      <c r="T14">
+        <v>0.2365668294247435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.71628310605718</v>
-      </c>
-      <c r="H11">
-        <v>1.71628310605718</v>
-      </c>
-      <c r="I11">
-        <v>0.5337948340641534</v>
-      </c>
-      <c r="J11">
-        <v>0.5337948340641534</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>29.479173952392</v>
-      </c>
-      <c r="N11">
-        <v>29.479173952392</v>
-      </c>
-      <c r="O11">
-        <v>0.05568208965203356</v>
-      </c>
-      <c r="P11">
-        <v>0.05568208965203356</v>
-      </c>
-      <c r="Q11">
-        <v>50.59460823501125</v>
-      </c>
-      <c r="R11">
-        <v>50.59460823501125</v>
-      </c>
-      <c r="S11">
-        <v>0.02972281180615257</v>
-      </c>
-      <c r="T11">
-        <v>0.02972281180615257</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.756520666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.269562000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.409220973036736</v>
+      </c>
+      <c r="J15">
+        <v>0.4714868980168704</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N15">
+        <v>71.267824</v>
+      </c>
+      <c r="O15">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P15">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q15">
+        <v>41.7278019081209</v>
+      </c>
+      <c r="R15">
+        <v>375.5502171730881</v>
+      </c>
+      <c r="S15">
+        <v>0.01784953922815605</v>
+      </c>
+      <c r="T15">
+        <v>0.02139006872409045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.756520666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.269562000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.409220973036736</v>
+      </c>
+      <c r="J16">
+        <v>0.4714868980168704</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37.351686</v>
+      </c>
+      <c r="N16">
+        <v>74.703372</v>
+      </c>
+      <c r="O16">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P16">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q16">
+        <v>65.60900839384401</v>
+      </c>
+      <c r="R16">
+        <v>393.6540503630641</v>
+      </c>
+      <c r="S16">
+        <v>0.02806499541061197</v>
+      </c>
+      <c r="T16">
+        <v>0.02242120176141893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.151577</v>
+      </c>
+      <c r="H17">
+        <v>0.454731</v>
+      </c>
+      <c r="I17">
+        <v>0.03531326935520789</v>
+      </c>
+      <c r="J17">
+        <v>0.04068643819393519</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.635466</v>
+      </c>
+      <c r="N17">
+        <v>51.270932</v>
+      </c>
+      <c r="O17">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P17">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q17">
+        <v>3.885747029882</v>
+      </c>
+      <c r="R17">
+        <v>23.314482179292</v>
+      </c>
+      <c r="S17">
+        <v>0.001662172241741574</v>
+      </c>
+      <c r="T17">
+        <v>0.001327913960043836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.151577</v>
+      </c>
+      <c r="H18">
+        <v>0.454731</v>
+      </c>
+      <c r="I18">
+        <v>0.03531326935520789</v>
+      </c>
+      <c r="J18">
+        <v>0.04068643819393519</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>195.156291</v>
+      </c>
+      <c r="N18">
+        <v>585.468873</v>
+      </c>
+      <c r="O18">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P18">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q18">
+        <v>29.581205120907</v>
+      </c>
+      <c r="R18">
+        <v>266.230846088163</v>
+      </c>
+      <c r="S18">
+        <v>0.0126536950684431</v>
+      </c>
+      <c r="T18">
+        <v>0.01516360751210514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.151577</v>
+      </c>
+      <c r="H19">
+        <v>0.454731</v>
+      </c>
+      <c r="I19">
+        <v>0.03531326935520789</v>
+      </c>
+      <c r="J19">
+        <v>0.04068643819393519</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N19">
+        <v>788.197709</v>
+      </c>
+      <c r="O19">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P19">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q19">
+        <v>39.82421471236433</v>
+      </c>
+      <c r="R19">
+        <v>358.417932411279</v>
+      </c>
+      <c r="S19">
+        <v>0.01703525827466399</v>
+      </c>
+      <c r="T19">
+        <v>0.02041427179548187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.151577</v>
+      </c>
+      <c r="H20">
+        <v>0.454731</v>
+      </c>
+      <c r="I20">
+        <v>0.03531326935520789</v>
+      </c>
+      <c r="J20">
+        <v>0.04068643819393519</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N20">
+        <v>71.267824</v>
+      </c>
+      <c r="O20">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P20">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q20">
+        <v>3.600854319482667</v>
+      </c>
+      <c r="R20">
+        <v>32.407688875344</v>
+      </c>
+      <c r="S20">
+        <v>0.001540306162591621</v>
+      </c>
+      <c r="T20">
+        <v>0.001845832223052764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.151577</v>
+      </c>
+      <c r="H21">
+        <v>0.454731</v>
+      </c>
+      <c r="I21">
+        <v>0.03531326935520789</v>
+      </c>
+      <c r="J21">
+        <v>0.04068643819393519</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.351686</v>
+      </c>
+      <c r="N21">
+        <v>74.703372</v>
+      </c>
+      <c r="O21">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P21">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q21">
+        <v>5.661656508821999</v>
+      </c>
+      <c r="R21">
+        <v>33.969939052932</v>
+      </c>
+      <c r="S21">
+        <v>0.002421837607767588</v>
+      </c>
+      <c r="T21">
+        <v>0.001934812703251577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.171147</v>
+      </c>
+      <c r="H22">
+        <v>0.342294</v>
+      </c>
+      <c r="I22">
+        <v>0.03987254075707901</v>
+      </c>
+      <c r="J22">
+        <v>0.03062629043358568</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>25.635466</v>
+      </c>
+      <c r="N22">
+        <v>51.270932</v>
+      </c>
+      <c r="O22">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P22">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q22">
+        <v>4.387433099502</v>
+      </c>
+      <c r="R22">
+        <v>17.549732398008</v>
+      </c>
+      <c r="S22">
+        <v>0.001876774132337658</v>
+      </c>
+      <c r="T22">
+        <v>0.0009995733324520315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.171147</v>
+      </c>
+      <c r="H23">
+        <v>0.342294</v>
+      </c>
+      <c r="I23">
+        <v>0.03987254075707901</v>
+      </c>
+      <c r="J23">
+        <v>0.03062629043358568</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>195.156291</v>
+      </c>
+      <c r="N23">
+        <v>585.468873</v>
+      </c>
+      <c r="O23">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P23">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q23">
+        <v>33.400413735777</v>
+      </c>
+      <c r="R23">
+        <v>200.402482414662</v>
+      </c>
+      <c r="S23">
+        <v>0.01428740475058111</v>
+      </c>
+      <c r="T23">
+        <v>0.01141424681789567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.171147</v>
+      </c>
+      <c r="H24">
+        <v>0.342294</v>
+      </c>
+      <c r="I24">
+        <v>0.03987254075707901</v>
+      </c>
+      <c r="J24">
+        <v>0.03062629043358568</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N24">
+        <v>788.197709</v>
+      </c>
+      <c r="O24">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P24">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q24">
+        <v>44.965891100741</v>
+      </c>
+      <c r="R24">
+        <v>269.795346604446</v>
+      </c>
+      <c r="S24">
+        <v>0.01923466850468026</v>
+      </c>
+      <c r="T24">
+        <v>0.01536662939180014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.171147</v>
+      </c>
+      <c r="H25">
+        <v>0.342294</v>
+      </c>
+      <c r="I25">
+        <v>0.03987254075707901</v>
+      </c>
+      <c r="J25">
+        <v>0.03062629043358568</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N25">
+        <v>71.267824</v>
+      </c>
+      <c r="O25">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P25">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q25">
+        <v>4.065758091376001</v>
+      </c>
+      <c r="R25">
+        <v>24.394548548256</v>
+      </c>
+      <c r="S25">
+        <v>0.00173917400930925</v>
+      </c>
+      <c r="T25">
+        <v>0.00138943088322024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.171147</v>
+      </c>
+      <c r="H26">
+        <v>0.342294</v>
+      </c>
+      <c r="I26">
+        <v>0.03987254075707901</v>
+      </c>
+      <c r="J26">
+        <v>0.03062629043358568</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>37.351686</v>
+      </c>
+      <c r="N26">
+        <v>74.703372</v>
+      </c>
+      <c r="O26">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P26">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q26">
+        <v>6.392629003842</v>
+      </c>
+      <c r="R26">
+        <v>25.570516015368</v>
+      </c>
+      <c r="S26">
+        <v>0.002734519360170735</v>
+      </c>
+      <c r="T26">
+        <v>0.001456410008217595</v>
       </c>
     </row>
   </sheetData>
